--- a/MyBinary/Types.xlsx
+++ b/MyBinary/Types.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\C#\Game\ColoredCharsEngine\Types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\C#\Game\MyBinary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC2467-D619-4B13-B114-2238E7DF44A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC6BD7-94B0-4162-8AA1-EFD7B1188ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="6075" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB1CC8A-9440-49B8-887A-27B74B73D222}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
